--- a/Data/F022.LBCP.FLU.Z.Z.Z.D.xlsx
+++ b/Data/F022.LBCP.FLU.Z.Z.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -16847,7 +16847,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -16949,7 +16949,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -18615,7 +18615,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -18632,7 +18632,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -18853,7 +18853,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -19074,7 +19074,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -19499,7 +19499,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -19703,7 +19703,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -19805,7 +19805,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -20179,7 +20179,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -20757,7 +20757,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -21590,7 +21590,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -21607,7 +21607,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21726,7 +21726,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -21845,7 +21845,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -21964,7 +21964,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -23494,7 +23494,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -23511,7 +23511,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -23613,7 +23613,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -23664,7 +23664,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
@@ -23749,7 +23749,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -24582,7 +24582,7 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
@@ -24922,7 +24922,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -25177,7 +25177,7 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
@@ -25279,7 +25279,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
@@ -25398,7 +25398,7 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -25517,7 +25517,7 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -25534,7 +25534,7 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
@@ -25636,7 +25636,7 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25755,7 +25755,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26112,7 +26112,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -26129,7 +26129,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
@@ -26367,7 +26367,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
@@ -26469,7 +26469,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
@@ -26826,7 +26826,7 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
@@ -27013,7 +27013,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
@@ -27302,7 +27302,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
@@ -27438,7 +27438,7 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
@@ -27540,7 +27540,7 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
@@ -27557,7 +27557,7 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
@@ -27659,7 +27659,7 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
@@ -27795,7 +27795,7 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
@@ -28101,7 +28101,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
@@ -28118,7 +28118,7 @@
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
@@ -28254,7 +28254,7 @@
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
@@ -28271,7 +28271,7 @@
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
@@ -28747,7 +28747,7 @@
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
@@ -28849,7 +28849,7 @@
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
@@ -28866,7 +28866,7 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
@@ -28985,7 +28985,7 @@
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
@@ -29087,7 +29087,7 @@
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
@@ -29104,7 +29104,7 @@
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
@@ -29206,7 +29206,7 @@
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr">
@@ -29325,7 +29325,7 @@
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1704" t="inlineStr">
@@ -29342,7 +29342,7 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1705" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1711" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr">
@@ -29478,7 +29478,7 @@
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr">
@@ -29563,7 +29563,7 @@
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
@@ -29801,7 +29801,7 @@
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
@@ -29920,7 +29920,7 @@
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr">
@@ -29937,7 +29937,7 @@
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
@@ -30039,7 +30039,7 @@
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1753" t="inlineStr">
@@ -30175,7 +30175,7 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
@@ -30277,7 +30277,7 @@
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr">
@@ -30396,7 +30396,7 @@
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1775" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr">
@@ -30651,7 +30651,7 @@
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr">
@@ -30753,7 +30753,7 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr">
@@ -30770,7 +30770,7 @@
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
@@ -30889,7 +30889,7 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
@@ -31008,7 +31008,7 @@
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1803" t="inlineStr">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1809" t="inlineStr">
@@ -31127,7 +31127,7 @@
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1810" t="inlineStr">
@@ -31229,7 +31229,7 @@
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1816" t="inlineStr">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1817" t="inlineStr">
@@ -31348,7 +31348,7 @@
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1823" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
@@ -31467,7 +31467,7 @@
       </c>
       <c r="B1830" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1830" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1831" t="inlineStr">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1836" t="inlineStr">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1838" t="inlineStr">
@@ -31705,7 +31705,7 @@
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1844" t="inlineStr">
@@ -31722,7 +31722,7 @@
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1845" t="inlineStr">
@@ -31824,7 +31824,7 @@
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1851" t="inlineStr">
@@ -31841,7 +31841,7 @@
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1852" t="inlineStr">
@@ -31926,7 +31926,7 @@
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr">
@@ -31960,7 +31960,7 @@
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr">
@@ -32198,7 +32198,7 @@
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
@@ -32266,7 +32266,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
@@ -32300,7 +32300,7 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr">
@@ -32436,7 +32436,7 @@
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr">
@@ -32538,7 +32538,7 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
@@ -32555,7 +32555,7 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
@@ -32674,7 +32674,7 @@
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr">
@@ -32776,7 +32776,7 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
@@ -32895,7 +32895,7 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
@@ -32929,7 +32929,7 @@
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
@@ -33014,7 +33014,7 @@
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
@@ -33031,7 +33031,7 @@
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
@@ -33133,7 +33133,7 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
@@ -33150,7 +33150,7 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
@@ -33218,7 +33218,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -33252,7 +33252,7 @@
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
@@ -33269,7 +33269,7 @@
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
@@ -33371,7 +33371,7 @@
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
@@ -33388,7 +33388,7 @@
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
@@ -33507,7 +33507,7 @@
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
@@ -33609,7 +33609,7 @@
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
@@ -33626,7 +33626,7 @@
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
@@ -33745,7 +33745,7 @@
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
@@ -33864,7 +33864,7 @@
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
@@ -33966,7 +33966,7 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
@@ -33983,7 +33983,7 @@
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
@@ -34102,7 +34102,7 @@
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
@@ -34204,7 +34204,7 @@
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -34306,7 +34306,7 @@
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
@@ -34323,7 +34323,7 @@
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
@@ -34340,7 +34340,7 @@
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
@@ -34442,7 +34442,7 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
@@ -34561,7 +34561,7 @@
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
@@ -34578,7 +34578,7 @@
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
@@ -34680,7 +34680,7 @@
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
@@ -34697,7 +34697,7 @@
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
@@ -34714,7 +34714,7 @@
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
@@ -34799,7 +34799,7 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
@@ -34918,7 +34918,7 @@
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
@@ -35037,7 +35037,7 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
@@ -35054,7 +35054,7 @@
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
@@ -35156,7 +35156,7 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
@@ -35275,7 +35275,7 @@
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
@@ -35292,7 +35292,7 @@
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
@@ -35394,7 +35394,7 @@
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
@@ -35411,7 +35411,7 @@
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
@@ -35513,7 +35513,7 @@
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
@@ -35530,7 +35530,7 @@
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -35649,7 +35649,7 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -35751,7 +35751,7 @@
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
@@ -35768,7 +35768,7 @@
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr">
@@ -35870,7 +35870,7 @@
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
@@ -35887,7 +35887,7 @@
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -35972,7 +35972,7 @@
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr">
@@ -36006,7 +36006,7 @@
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -36091,7 +36091,7 @@
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr">
@@ -36108,7 +36108,7 @@
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr">
@@ -36125,7 +36125,7 @@
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr">
@@ -36227,7 +36227,7 @@
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr">
@@ -36244,7 +36244,7 @@
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr">
@@ -36346,7 +36346,7 @@
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr">
@@ -36363,7 +36363,7 @@
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr">
@@ -36465,7 +36465,7 @@
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr">
@@ -36584,7 +36584,7 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -36601,7 +36601,7 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr">
@@ -36822,7 +36822,7 @@
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr">
@@ -36958,7 +36958,7 @@
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr">
@@ -37060,7 +37060,7 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr">
@@ -37077,7 +37077,7 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr">
@@ -37196,7 +37196,7 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr">
@@ -37417,7 +37417,7 @@
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr">
@@ -37536,7 +37536,7 @@
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
@@ -37553,7 +37553,7 @@
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
@@ -37638,7 +37638,7 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr">
@@ -37672,7 +37672,7 @@
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
@@ -37774,7 +37774,7 @@
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2201" t="inlineStr">
@@ -37791,7 +37791,7 @@
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr">
@@ -37893,7 +37893,7 @@
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
@@ -37910,7 +37910,7 @@
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
@@ -38012,7 +38012,7 @@
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
@@ -38029,7 +38029,7 @@
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
@@ -38131,7 +38131,7 @@
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
@@ -38250,7 +38250,7 @@
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
@@ -38267,7 +38267,7 @@
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
@@ -38369,7 +38369,7 @@
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2236" t="inlineStr">
@@ -38386,7 +38386,7 @@
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
@@ -38488,7 +38488,7 @@
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
@@ -38505,7 +38505,7 @@
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
@@ -38607,7 +38607,7 @@
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
@@ -38624,7 +38624,7 @@
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
@@ -38726,7 +38726,7 @@
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
@@ -38743,7 +38743,7 @@
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
@@ -38845,7 +38845,7 @@
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
@@ -38862,7 +38862,7 @@
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
@@ -38981,7 +38981,7 @@
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
@@ -39083,7 +39083,7 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
@@ -39202,7 +39202,7 @@
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
@@ -39219,7 +39219,7 @@
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
@@ -39321,7 +39321,7 @@
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
@@ -39423,7 +39423,7 @@
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
@@ -39440,7 +39440,7 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
@@ -39457,7 +39457,7 @@
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
@@ -39559,7 +39559,7 @@
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
@@ -39576,7 +39576,7 @@
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
@@ -39678,7 +39678,7 @@
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
@@ -39695,7 +39695,7 @@
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
@@ -39797,7 +39797,7 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
@@ -39814,7 +39814,7 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
@@ -40052,7 +40052,7 @@
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
@@ -40154,7 +40154,7 @@
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
@@ -40171,7 +40171,7 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
@@ -40273,7 +40273,7 @@
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
@@ -40290,7 +40290,7 @@
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
@@ -40392,7 +40392,7 @@
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
@@ -40409,7 +40409,7 @@
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
@@ -40494,7 +40494,7 @@
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
@@ -40511,7 +40511,7 @@
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
@@ -40528,7 +40528,7 @@
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
@@ -40545,7 +40545,7 @@
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
@@ -40630,7 +40630,7 @@
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
@@ -40647,7 +40647,7 @@
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -40766,7 +40766,7 @@
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
@@ -40868,7 +40868,7 @@
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
@@ -40885,7 +40885,7 @@
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
@@ -40902,7 +40902,7 @@
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
@@ -41004,7 +41004,7 @@
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
@@ -41106,7 +41106,7 @@
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
@@ -41123,7 +41123,7 @@
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
@@ -41225,7 +41225,7 @@
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
@@ -41242,7 +41242,7 @@
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
@@ -41259,7 +41259,7 @@
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
@@ -41344,7 +41344,7 @@
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
@@ -41480,7 +41480,7 @@
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
@@ -41582,7 +41582,7 @@
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
@@ -41599,7 +41599,7 @@
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
@@ -41701,7 +41701,7 @@
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
@@ -41718,7 +41718,7 @@
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
@@ -41820,7 +41820,7 @@
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr">
@@ -41837,7 +41837,7 @@
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr">
@@ -41888,7 +41888,7 @@
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
@@ -41939,7 +41939,7 @@
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
@@ -41956,7 +41956,7 @@
       </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2447" t="inlineStr">
@@ -42058,7 +42058,7 @@
       </c>
       <c r="B2453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2453" t="inlineStr">
@@ -42075,7 +42075,7 @@
       </c>
       <c r="B2454" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2454" t="inlineStr">
@@ -42177,7 +42177,7 @@
       </c>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr">
@@ -42194,7 +42194,7 @@
       </c>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="B2466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2466" t="inlineStr">
@@ -42296,7 +42296,7 @@
       </c>
       <c r="B2467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2467" t="inlineStr">
@@ -42313,7 +42313,7 @@
       </c>
       <c r="B2468" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2468" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="B2474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2474" t="inlineStr">
@@ -42432,7 +42432,7 @@
       </c>
       <c r="B2475" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2475" t="inlineStr">
@@ -42534,7 +42534,7 @@
       </c>
       <c r="B2481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2481" t="inlineStr">
@@ -42551,7 +42551,7 @@
       </c>
       <c r="B2482" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2482" t="inlineStr">
@@ -42653,7 +42653,7 @@
       </c>
       <c r="B2488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2488" t="inlineStr">
@@ -42670,7 +42670,7 @@
       </c>
       <c r="B2489" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2489" t="inlineStr">
@@ -42772,7 +42772,7 @@
       </c>
       <c r="B2495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2495" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="B2496" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2496" t="inlineStr">
@@ -42891,7 +42891,7 @@
       </c>
       <c r="B2502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2502" t="inlineStr">
@@ -42908,7 +42908,7 @@
       </c>
       <c r="B2503" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2503" t="inlineStr">
@@ -43010,7 +43010,7 @@
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2509" t="inlineStr">
@@ -43027,7 +43027,7 @@
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2510" t="inlineStr">
@@ -43129,7 +43129,7 @@
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2516" t="inlineStr">
@@ -43146,7 +43146,7 @@
       </c>
       <c r="B2517" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2517" t="inlineStr">
@@ -43248,7 +43248,7 @@
       </c>
       <c r="B2523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2523" t="inlineStr">
@@ -43265,7 +43265,7 @@
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2524" t="inlineStr">
@@ -43367,7 +43367,7 @@
       </c>
       <c r="B2530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2530" t="inlineStr">
@@ -43384,7 +43384,7 @@
       </c>
       <c r="B2531" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2531" t="inlineStr">
@@ -43486,7 +43486,7 @@
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2537" t="inlineStr">
@@ -43503,7 +43503,7 @@
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2538" t="inlineStr">
@@ -43605,7 +43605,7 @@
       </c>
       <c r="B2544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2544" t="inlineStr">
@@ -43622,7 +43622,7 @@
       </c>
       <c r="B2545" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2545" t="inlineStr">
@@ -43724,7 +43724,7 @@
       </c>
       <c r="B2551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2551" t="inlineStr">
@@ -43741,7 +43741,7 @@
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2552" t="inlineStr">
@@ -43843,7 +43843,7 @@
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2558" t="inlineStr">
@@ -43860,7 +43860,7 @@
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2559" t="inlineStr">
@@ -43962,7 +43962,7 @@
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2565" t="inlineStr">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2566" t="inlineStr">
@@ -44081,7 +44081,7 @@
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2572" t="inlineStr">
@@ -44098,7 +44098,7 @@
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2573" t="inlineStr">
@@ -44183,7 +44183,7 @@
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
@@ -44200,7 +44200,7 @@
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
@@ -44217,7 +44217,7 @@
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
@@ -44319,7 +44319,7 @@
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
@@ -44438,7 +44438,7 @@
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
@@ -44455,7 +44455,7 @@
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
@@ -44557,7 +44557,7 @@
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
@@ -44574,7 +44574,7 @@
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
@@ -44676,7 +44676,7 @@
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
@@ -44693,7 +44693,7 @@
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
@@ -44795,7 +44795,7 @@
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
@@ -44914,7 +44914,7 @@
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
@@ -44931,7 +44931,7 @@
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
@@ -45033,7 +45033,7 @@
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
@@ -45050,7 +45050,7 @@
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
@@ -45169,7 +45169,7 @@
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
@@ -45271,7 +45271,7 @@
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
@@ -45288,7 +45288,7 @@
       </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
@@ -45305,7 +45305,7 @@
       </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
@@ -45390,7 +45390,7 @@
       </c>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
@@ -45407,7 +45407,7 @@
       </c>
       <c r="B2650" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2650" t="inlineStr">
@@ -45509,7 +45509,7 @@
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
@@ -45526,7 +45526,7 @@
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
@@ -45628,7 +45628,7 @@
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
@@ -45645,7 +45645,7 @@
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
@@ -45747,7 +45747,7 @@
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
@@ -45764,7 +45764,7 @@
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
@@ -45866,7 +45866,7 @@
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
@@ -45883,7 +45883,7 @@
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
@@ -45985,7 +45985,7 @@
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
@@ -46002,7 +46002,7 @@
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
@@ -46104,7 +46104,7 @@
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
@@ -46121,7 +46121,7 @@
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
@@ -46138,7 +46138,7 @@
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
@@ -46223,7 +46223,7 @@
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
@@ -46240,7 +46240,7 @@
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
@@ -46342,7 +46342,7 @@
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
@@ -46359,7 +46359,7 @@
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
@@ -46478,7 +46478,7 @@
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
@@ -46580,7 +46580,7 @@
       </c>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
@@ -46597,7 +46597,7 @@
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
@@ -46699,7 +46699,7 @@
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
@@ -46716,7 +46716,7 @@
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
@@ -46733,7 +46733,7 @@
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
@@ -46835,7 +46835,7 @@
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
@@ -46937,7 +46937,7 @@
       </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
@@ -46954,7 +46954,7 @@
       </c>
       <c r="B2741" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2741" t="inlineStr">
@@ -47056,7 +47056,7 @@
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
@@ -47073,7 +47073,7 @@
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
@@ -47090,7 +47090,7 @@
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
@@ -47175,7 +47175,7 @@
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
@@ -47192,7 +47192,7 @@
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
@@ -47294,7 +47294,7 @@
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
@@ -47311,7 +47311,7 @@
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
@@ -47430,7 +47430,7 @@
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
@@ -47447,7 +47447,7 @@
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
@@ -47464,7 +47464,7 @@
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
@@ -47532,7 +47532,7 @@
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
@@ -47651,7 +47651,7 @@
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
@@ -47668,7 +47668,7 @@
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
@@ -47770,7 +47770,7 @@
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
@@ -47787,7 +47787,7 @@
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
@@ -47889,7 +47889,7 @@
       </c>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
@@ -47906,7 +47906,7 @@
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
@@ -48008,7 +48008,7 @@
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
@@ -48025,7 +48025,7 @@
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
@@ -48093,7 +48093,7 @@
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
@@ -48127,7 +48127,7 @@
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
@@ -48144,7 +48144,7 @@
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
@@ -48246,7 +48246,7 @@
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
@@ -48263,7 +48263,7 @@
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
@@ -48365,7 +48365,7 @@
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
@@ -48382,7 +48382,7 @@
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
@@ -48484,7 +48484,7 @@
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
@@ -48501,7 +48501,7 @@
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
@@ -48603,7 +48603,7 @@
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
@@ -48620,7 +48620,7 @@
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
@@ -48722,7 +48722,7 @@
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
@@ -48739,7 +48739,7 @@
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
@@ -48841,7 +48841,7 @@
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
@@ -48858,7 +48858,7 @@
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
@@ -48960,7 +48960,7 @@
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
@@ -48977,7 +48977,7 @@
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
@@ -49079,7 +49079,7 @@
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
@@ -49096,7 +49096,7 @@
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
@@ -49198,7 +49198,7 @@
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
@@ -49215,7 +49215,7 @@
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
@@ -49317,7 +49317,7 @@
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
@@ -49334,7 +49334,7 @@
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
@@ -49436,7 +49436,7 @@
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
@@ -49453,7 +49453,7 @@
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
@@ -49555,7 +49555,7 @@
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
@@ -49572,7 +49572,7 @@
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
@@ -49674,7 +49674,7 @@
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
@@ -49691,7 +49691,7 @@
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
@@ -49793,7 +49793,7 @@
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
@@ -49810,7 +49810,7 @@
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
@@ -49912,7 +49912,7 @@
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
@@ -49929,7 +49929,7 @@
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
@@ -50031,7 +50031,7 @@
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
@@ -50048,7 +50048,7 @@
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
@@ -50133,7 +50133,7 @@
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
@@ -50150,7 +50150,7 @@
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
@@ -50167,7 +50167,7 @@
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
@@ -50269,7 +50269,7 @@
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
@@ -50286,7 +50286,7 @@
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
@@ -50388,7 +50388,7 @@
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
@@ -50405,7 +50405,7 @@
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
@@ -50507,7 +50507,7 @@
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr">
@@ -50524,7 +50524,7 @@
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr">
@@ -50558,7 +50558,7 @@
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr">
@@ -50626,7 +50626,7 @@
       </c>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2957" t="inlineStr">
@@ -50643,7 +50643,7 @@
       </c>
       <c r="B2958" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2958" t="inlineStr">
@@ -50745,7 +50745,7 @@
       </c>
       <c r="B2964" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2964" t="inlineStr">
@@ -50762,7 +50762,7 @@
       </c>
       <c r="B2965" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2965" t="inlineStr">
@@ -50864,7 +50864,7 @@
       </c>
       <c r="B2971" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2971" t="inlineStr">
@@ -50881,7 +50881,7 @@
       </c>
       <c r="B2972" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2972" t="inlineStr">
@@ -50898,7 +50898,7 @@
       </c>
       <c r="B2973" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2973" t="inlineStr">
@@ -50983,7 +50983,7 @@
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr">
@@ -51000,7 +51000,7 @@
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr">
@@ -51102,7 +51102,7 @@
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr">
@@ -51119,7 +51119,7 @@
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr">
@@ -51221,7 +51221,7 @@
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr">
@@ -51238,7 +51238,7 @@
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr">
@@ -51340,7 +51340,7 @@
       </c>
       <c r="B2999" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2999" t="inlineStr">
@@ -51357,7 +51357,7 @@
       </c>
       <c r="B3000" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3000" t="inlineStr">
@@ -51459,7 +51459,7 @@
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr">
@@ -51476,7 +51476,7 @@
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="B3013" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3013" t="inlineStr">
@@ -51595,7 +51595,7 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr">
@@ -51612,7 +51612,7 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr">
@@ -51697,7 +51697,7 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr">
@@ -51714,7 +51714,7 @@
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr">
@@ -51816,7 +51816,7 @@
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr">
@@ -51833,7 +51833,7 @@
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr">
@@ -51935,7 +51935,7 @@
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr">
@@ -51952,7 +51952,7 @@
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr">
@@ -52054,7 +52054,7 @@
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr">
@@ -52071,7 +52071,7 @@
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr">
@@ -52173,7 +52173,7 @@
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr">
@@ -52190,7 +52190,7 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr">
@@ -52292,7 +52292,7 @@
       </c>
       <c r="B3055" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3055" t="inlineStr">
@@ -52309,7 +52309,7 @@
       </c>
       <c r="B3056" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3056" t="inlineStr">
@@ -52360,7 +52360,7 @@
       </c>
       <c r="B3059" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3059" t="inlineStr">
@@ -52411,7 +52411,7 @@
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr">
@@ -52428,7 +52428,7 @@
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr">
@@ -52530,7 +52530,7 @@
       </c>
       <c r="B3069" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3069" t="inlineStr">
@@ -52547,7 +52547,7 @@
       </c>
       <c r="B3070" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3070" t="inlineStr">
@@ -52649,7 +52649,7 @@
       </c>
       <c r="B3076" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3076" t="inlineStr">
@@ -52666,7 +52666,7 @@
       </c>
       <c r="B3077" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3077" t="inlineStr">
@@ -52768,7 +52768,7 @@
       </c>
       <c r="B3083" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3083" t="inlineStr">
@@ -52785,7 +52785,7 @@
       </c>
       <c r="B3084" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3084" t="inlineStr">
@@ -52887,7 +52887,7 @@
       </c>
       <c r="B3090" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3090" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="B3091" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3091" t="inlineStr">
@@ -52921,7 +52921,7 @@
       </c>
       <c r="B3092" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3092" t="inlineStr">
@@ -52938,7 +52938,7 @@
       </c>
       <c r="B3093" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3093" t="inlineStr">
@@ -52955,7 +52955,7 @@
       </c>
       <c r="B3094" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3094" t="inlineStr">
@@ -53006,7 +53006,7 @@
       </c>
       <c r="B3097" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3097" t="inlineStr">
@@ -53023,7 +53023,7 @@
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3098" t="inlineStr">
@@ -53125,7 +53125,7 @@
       </c>
       <c r="B3104" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3104" t="inlineStr">
@@ -53142,7 +53142,7 @@
       </c>
       <c r="B3105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3105" t="inlineStr">
@@ -53244,7 +53244,7 @@
       </c>
       <c r="B3111" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3111" t="inlineStr">
@@ -53261,7 +53261,7 @@
       </c>
       <c r="B3112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3112" t="inlineStr">
@@ -53363,7 +53363,7 @@
       </c>
       <c r="B3118" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3118" t="inlineStr">
@@ -53380,7 +53380,7 @@
       </c>
       <c r="B3119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3119" t="inlineStr">
@@ -53397,7 +53397,7 @@
       </c>
       <c r="B3120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3120" t="inlineStr">
@@ -53482,7 +53482,7 @@
       </c>
       <c r="B3125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3125" t="inlineStr">
@@ -53499,7 +53499,7 @@
       </c>
       <c r="B3126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3126" t="inlineStr">
@@ -53601,7 +53601,7 @@
       </c>
       <c r="B3132" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3132" t="inlineStr">
@@ -53618,7 +53618,7 @@
       </c>
       <c r="B3133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3133" t="inlineStr">
@@ -53686,7 +53686,7 @@
       </c>
       <c r="B3137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3137" t="inlineStr">
@@ -53703,7 +53703,7 @@
       </c>
       <c r="B3138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3138" t="inlineStr">
@@ -53720,7 +53720,7 @@
       </c>
       <c r="B3139" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3139" t="inlineStr">
@@ -53737,7 +53737,7 @@
       </c>
       <c r="B3140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3140" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="B3146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3146" t="inlineStr">
@@ -53856,7 +53856,7 @@
       </c>
       <c r="B3147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3147" t="inlineStr">
@@ -53958,7 +53958,7 @@
       </c>
       <c r="B3153" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3153" t="inlineStr">
@@ -53975,7 +53975,7 @@
       </c>
       <c r="B3154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3154" t="inlineStr">
@@ -54077,7 +54077,7 @@
       </c>
       <c r="B3160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3160" t="inlineStr">
@@ -54094,7 +54094,7 @@
       </c>
       <c r="B3161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3161" t="inlineStr">
@@ -54196,7 +54196,7 @@
       </c>
       <c r="B3167" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3167" t="inlineStr">
@@ -54213,7 +54213,7 @@
       </c>
       <c r="B3168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3168" t="inlineStr">
@@ -54315,7 +54315,7 @@
       </c>
       <c r="B3174" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3174" t="inlineStr">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="B3175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3175" t="inlineStr">
@@ -54434,7 +54434,7 @@
       </c>
       <c r="B3181" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3181" t="inlineStr">
@@ -54451,7 +54451,7 @@
       </c>
       <c r="B3182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3182" t="inlineStr">
@@ -54553,7 +54553,7 @@
       </c>
       <c r="B3188" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3188" t="inlineStr">
@@ -54570,7 +54570,7 @@
       </c>
       <c r="B3189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3189" t="inlineStr">
@@ -54604,7 +54604,7 @@
       </c>
       <c r="B3191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3191" t="inlineStr">
@@ -54672,7 +54672,7 @@
       </c>
       <c r="B3195" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3195" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="B3196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3196" t="inlineStr">
@@ -54706,7 +54706,7 @@
       </c>
       <c r="B3197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3197" t="inlineStr">
@@ -54723,7 +54723,7 @@
       </c>
       <c r="B3198" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3198" t="inlineStr">
@@ -54791,7 +54791,7 @@
       </c>
       <c r="B3202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3202" t="inlineStr">
@@ -54808,7 +54808,7 @@
       </c>
       <c r="B3203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3203" t="inlineStr">
@@ -54910,7 +54910,7 @@
       </c>
       <c r="B3209" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3209" t="inlineStr">
@@ -54927,7 +54927,7 @@
       </c>
       <c r="B3210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3210" t="inlineStr">
@@ -55029,7 +55029,7 @@
       </c>
       <c r="B3216" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3216" t="inlineStr">
@@ -55046,7 +55046,7 @@
       </c>
       <c r="B3217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3217" t="inlineStr">
@@ -55148,7 +55148,7 @@
       </c>
       <c r="B3223" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3223" t="inlineStr">
@@ -55165,7 +55165,7 @@
       </c>
       <c r="B3224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3224" t="inlineStr">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="B3230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3230" t="inlineStr">
@@ -55284,7 +55284,7 @@
       </c>
       <c r="B3231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3231" t="inlineStr">
@@ -55386,7 +55386,7 @@
       </c>
       <c r="B3237" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3237" t="inlineStr">
@@ -55403,7 +55403,7 @@
       </c>
       <c r="B3238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3238" t="inlineStr">
@@ -55505,7 +55505,7 @@
       </c>
       <c r="B3244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3244" t="inlineStr">
@@ -55522,7 +55522,7 @@
       </c>
       <c r="B3245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3245" t="inlineStr">
@@ -55624,7 +55624,7 @@
       </c>
       <c r="B3251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3251" t="inlineStr">
@@ -55641,7 +55641,7 @@
       </c>
       <c r="B3252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3252" t="inlineStr">
@@ -55743,7 +55743,7 @@
       </c>
       <c r="B3258" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3258" t="inlineStr">
@@ -55760,7 +55760,7 @@
       </c>
       <c r="B3259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3259" t="inlineStr">
@@ -55862,7 +55862,7 @@
       </c>
       <c r="B3265" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3265" t="inlineStr">
@@ -55879,7 +55879,7 @@
       </c>
       <c r="B3266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3266" t="inlineStr">
@@ -55981,7 +55981,7 @@
       </c>
       <c r="B3272" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3272" t="inlineStr">
@@ -55998,7 +55998,7 @@
       </c>
       <c r="B3273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3273" t="inlineStr">
@@ -56100,7 +56100,7 @@
       </c>
       <c r="B3279" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3279" t="inlineStr">
@@ -56117,7 +56117,7 @@
       </c>
       <c r="B3280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3280" t="inlineStr">
@@ -56202,7 +56202,7 @@
       </c>
       <c r="B3285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3285" t="inlineStr">
@@ -56219,7 +56219,7 @@
       </c>
       <c r="B3286" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3286" t="inlineStr">
@@ -56236,7 +56236,7 @@
       </c>
       <c r="B3287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3287" t="inlineStr">
@@ -56338,7 +56338,7 @@
       </c>
       <c r="B3293" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3293" t="inlineStr">
@@ -56355,7 +56355,7 @@
       </c>
       <c r="B3294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3294" t="inlineStr">
@@ -56457,7 +56457,7 @@
       </c>
       <c r="B3300" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3300" t="inlineStr">
@@ -56474,7 +56474,7 @@
       </c>
       <c r="B3301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3301" t="inlineStr">
@@ -56576,7 +56576,7 @@
       </c>
       <c r="B3307" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3307" t="inlineStr">
@@ -56593,7 +56593,7 @@
       </c>
       <c r="B3308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3308" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="B3314" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3314" t="inlineStr">
@@ -56712,7 +56712,7 @@
       </c>
       <c r="B3315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3315" t="inlineStr">
@@ -56763,7 +56763,7 @@
       </c>
       <c r="B3318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3318" t="inlineStr">
@@ -56814,7 +56814,7 @@
       </c>
       <c r="B3321" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3321" t="inlineStr">
@@ -56831,7 +56831,7 @@
       </c>
       <c r="B3322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3322" t="inlineStr">
@@ -56933,7 +56933,7 @@
       </c>
       <c r="B3328" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3328" t="inlineStr">
@@ -56950,7 +56950,7 @@
       </c>
       <c r="B3329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3329" t="inlineStr">
@@ -57052,7 +57052,7 @@
       </c>
       <c r="B3335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3335" t="inlineStr">
@@ -57069,7 +57069,7 @@
       </c>
       <c r="B3336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3336" t="inlineStr">
@@ -57103,7 +57103,7 @@
       </c>
       <c r="B3338" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3338" t="inlineStr">
@@ -57171,7 +57171,7 @@
       </c>
       <c r="B3342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3342" t="inlineStr">
@@ -57188,7 +57188,7 @@
       </c>
       <c r="B3343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3343" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="B3349" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3349" t="inlineStr">
@@ -57307,7 +57307,7 @@
       </c>
       <c r="B3350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3350" t="inlineStr">
@@ -57409,7 +57409,7 @@
       </c>
       <c r="B3356" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3356" t="inlineStr">
@@ -57426,7 +57426,7 @@
       </c>
       <c r="B3357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3357" t="inlineStr">
@@ -57528,7 +57528,7 @@
       </c>
       <c r="B3363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3363" t="inlineStr">
@@ -57545,7 +57545,7 @@
       </c>
       <c r="B3364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3364" t="inlineStr">
@@ -57647,7 +57647,7 @@
       </c>
       <c r="B3370" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3370" t="inlineStr">
@@ -57664,7 +57664,7 @@
       </c>
       <c r="B3371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3371" t="inlineStr">
@@ -57766,7 +57766,7 @@
       </c>
       <c r="B3377" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3377" t="inlineStr">
@@ -57783,7 +57783,7 @@
       </c>
       <c r="B3378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3378" t="inlineStr">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="B3384" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3384" t="inlineStr">
@@ -57902,7 +57902,7 @@
       </c>
       <c r="B3385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3385" t="inlineStr">
@@ -58004,7 +58004,7 @@
       </c>
       <c r="B3391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3391" t="inlineStr">
@@ -58021,7 +58021,7 @@
       </c>
       <c r="B3392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3392" t="inlineStr">
@@ -58055,7 +58055,7 @@
       </c>
       <c r="B3394" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3394" t="inlineStr">
@@ -58123,7 +58123,7 @@
       </c>
       <c r="B3398" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3398" t="inlineStr">
@@ -58140,7 +58140,7 @@
       </c>
       <c r="B3399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3399" t="inlineStr">
@@ -58242,7 +58242,7 @@
       </c>
       <c r="B3405" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3405" t="inlineStr">
@@ -58259,7 +58259,7 @@
       </c>
       <c r="B3406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3406" t="inlineStr">

--- a/Data/F022.LBCP.FLU.Z.Z.Z.D.xlsx
+++ b/Data/F022.LBCP.FLU.Z.Z.Z.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -15759,7 +15759,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -16847,7 +16847,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -16949,7 +16949,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -18615,7 +18615,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -18632,7 +18632,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -18853,7 +18853,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -19074,7 +19074,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -19499,7 +19499,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -19703,7 +19703,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -19805,7 +19805,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -20179,7 +20179,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -20757,7 +20757,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -21590,7 +21590,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -21607,7 +21607,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21726,7 +21726,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -21845,7 +21845,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -21964,7 +21964,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -22304,7 +22304,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -23494,7 +23494,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -23511,7 +23511,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -23613,7 +23613,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -23664,7 +23664,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
@@ -23749,7 +23749,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -24582,7 +24582,7 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
@@ -24922,7 +24922,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -25058,7 +25058,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -25177,7 +25177,7 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
@@ -25279,7 +25279,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
@@ -25398,7 +25398,7 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -25517,7 +25517,7 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -25534,7 +25534,7 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
@@ -25636,7 +25636,7 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25755,7 +25755,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26112,7 +26112,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -26129,7 +26129,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
@@ -26367,7 +26367,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
@@ -26469,7 +26469,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
@@ -26724,7 +26724,7 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
@@ -26826,7 +26826,7 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
@@ -27013,7 +27013,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
@@ -27302,7 +27302,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
@@ -27438,7 +27438,7 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
@@ -27540,7 +27540,7 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
@@ -27557,7 +27557,7 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
@@ -27659,7 +27659,7 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
@@ -27795,7 +27795,7 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
@@ -28101,7 +28101,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
@@ -28118,7 +28118,7 @@
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
@@ -28254,7 +28254,7 @@
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
@@ -28271,7 +28271,7 @@
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
@@ -28747,7 +28747,7 @@
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
@@ -28849,7 +28849,7 @@
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
@@ -28866,7 +28866,7 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
@@ -28985,7 +28985,7 @@
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
@@ -29087,7 +29087,7 @@
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
@@ -29104,7 +29104,7 @@
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
@@ -29206,7 +29206,7 @@
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr">
@@ -29325,7 +29325,7 @@
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1704" t="inlineStr">
@@ -29342,7 +29342,7 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1705" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1711" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr">
@@ -29478,7 +29478,7 @@
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr">
@@ -29563,7 +29563,7 @@
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
@@ -29801,7 +29801,7 @@
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
@@ -29920,7 +29920,7 @@
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr">
@@ -29937,7 +29937,7 @@
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
@@ -30039,7 +30039,7 @@
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1753" t="inlineStr">
@@ -30175,7 +30175,7 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
@@ -30277,7 +30277,7 @@
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr">
@@ -30396,7 +30396,7 @@
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1775" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr">
@@ -30651,7 +30651,7 @@
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr">
@@ -30753,7 +30753,7 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr">
@@ -30770,7 +30770,7 @@
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
@@ -30889,7 +30889,7 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
@@ -31008,7 +31008,7 @@
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1803" t="inlineStr">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1809" t="inlineStr">
@@ -31127,7 +31127,7 @@
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1810" t="inlineStr">
@@ -31229,7 +31229,7 @@
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1816" t="inlineStr">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1817" t="inlineStr">
@@ -31348,7 +31348,7 @@
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1823" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
@@ -31467,7 +31467,7 @@
       </c>
       <c r="B1830" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1830" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1831" t="inlineStr">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1836" t="inlineStr">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1838" t="inlineStr">
@@ -31705,7 +31705,7 @@
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1844" t="inlineStr">
@@ -31722,7 +31722,7 @@
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1845" t="inlineStr">
@@ -31824,7 +31824,7 @@
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1851" t="inlineStr">
@@ -31841,7 +31841,7 @@
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1852" t="inlineStr">
@@ -31926,7 +31926,7 @@
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr">
@@ -31960,7 +31960,7 @@
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr">
@@ -32198,7 +32198,7 @@
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
@@ -32266,7 +32266,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
@@ -32300,7 +32300,7 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr">
@@ -32436,7 +32436,7 @@
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr">
@@ -32538,7 +32538,7 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
@@ -32555,7 +32555,7 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
@@ -32674,7 +32674,7 @@
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr">
@@ -32776,7 +32776,7 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
@@ -32895,7 +32895,7 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
@@ -32929,7 +32929,7 @@
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
@@ -33014,7 +33014,7 @@
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
@@ -33031,7 +33031,7 @@
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
@@ -33133,7 +33133,7 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
@@ -33150,7 +33150,7 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
@@ -33218,7 +33218,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -33252,7 +33252,7 @@
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
@@ -33269,7 +33269,7 @@
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
@@ -33371,7 +33371,7 @@
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
@@ -33388,7 +33388,7 @@
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
@@ -33507,7 +33507,7 @@
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
@@ -33609,7 +33609,7 @@
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
@@ -33626,7 +33626,7 @@
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
@@ -33745,7 +33745,7 @@
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
@@ -33864,7 +33864,7 @@
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
@@ -33966,7 +33966,7 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
@@ -33983,7 +33983,7 @@
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
@@ -34102,7 +34102,7 @@
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
@@ -34204,7 +34204,7 @@
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -34306,7 +34306,7 @@
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
@@ -34323,7 +34323,7 @@
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
@@ -34340,7 +34340,7 @@
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
@@ -34442,7 +34442,7 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
@@ -34561,7 +34561,7 @@
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
@@ -34578,7 +34578,7 @@
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
@@ -34680,7 +34680,7 @@
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
@@ -34697,7 +34697,7 @@
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
@@ -34714,7 +34714,7 @@
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
@@ -34799,7 +34799,7 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
@@ -34918,7 +34918,7 @@
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
@@ -35037,7 +35037,7 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
@@ -35054,7 +35054,7 @@
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
@@ -35156,7 +35156,7 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
@@ -35275,7 +35275,7 @@
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
@@ -35292,7 +35292,7 @@
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
@@ -35394,7 +35394,7 @@
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
@@ -35411,7 +35411,7 @@
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
@@ -35513,7 +35513,7 @@
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
@@ -35530,7 +35530,7 @@
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -35649,7 +35649,7 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -35751,7 +35751,7 @@
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
@@ -35768,7 +35768,7 @@
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr">
@@ -35870,7 +35870,7 @@
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
@@ -35887,7 +35887,7 @@
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -35972,7 +35972,7 @@
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr">
@@ -36006,7 +36006,7 @@
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -36091,7 +36091,7 @@
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr">
@@ -36108,7 +36108,7 @@
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr">
@@ -36125,7 +36125,7 @@
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr">
@@ -36227,7 +36227,7 @@
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr">
@@ -36244,7 +36244,7 @@
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr">
@@ -36346,7 +36346,7 @@
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr">
@@ -36363,7 +36363,7 @@
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr">
@@ -36465,7 +36465,7 @@
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr">
@@ -36584,7 +36584,7 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -36601,7 +36601,7 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr">
@@ -36822,7 +36822,7 @@
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr">
@@ -36958,7 +36958,7 @@
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr">
@@ -37060,7 +37060,7 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr">
@@ -37077,7 +37077,7 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr">
@@ -37196,7 +37196,7 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr">
@@ -37417,7 +37417,7 @@
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr">
@@ -37536,7 +37536,7 @@
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
@@ -37553,7 +37553,7 @@
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
@@ -37638,7 +37638,7 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr">
@@ -37672,7 +37672,7 @@
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
@@ -37774,7 +37774,7 @@
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2201" t="inlineStr">
@@ -37791,7 +37791,7 @@
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr">
@@ -37893,7 +37893,7 @@
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
@@ -37910,7 +37910,7 @@
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
@@ -38012,7 +38012,7 @@
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
@@ -38029,7 +38029,7 @@
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
@@ -38131,7 +38131,7 @@
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
@@ -38250,7 +38250,7 @@
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
@@ -38267,7 +38267,7 @@
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
@@ -38369,7 +38369,7 @@
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2236" t="inlineStr">
@@ -38386,7 +38386,7 @@
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
@@ -38488,7 +38488,7 @@
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
@@ -38505,7 +38505,7 @@
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
@@ -38607,7 +38607,7 @@
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
@@ -38624,7 +38624,7 @@
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
@@ -38726,7 +38726,7 @@
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
@@ -38743,7 +38743,7 @@
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
@@ -38845,7 +38845,7 @@
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
@@ -38862,7 +38862,7 @@
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
@@ -38981,7 +38981,7 @@
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
@@ -39083,7 +39083,7 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
@@ -39202,7 +39202,7 @@
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
@@ -39219,7 +39219,7 @@
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
@@ -39321,7 +39321,7 @@
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
@@ -39423,7 +39423,7 @@
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
@@ -39440,7 +39440,7 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
@@ -39457,7 +39457,7 @@
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
@@ -39559,7 +39559,7 @@
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
@@ -39576,7 +39576,7 @@
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
@@ -39678,7 +39678,7 @@
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
@@ -39695,7 +39695,7 @@
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
@@ -39797,7 +39797,7 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
@@ -39814,7 +39814,7 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
@@ -40052,7 +40052,7 @@
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
@@ -40154,7 +40154,7 @@
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
@@ -40171,7 +40171,7 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
@@ -40273,7 +40273,7 @@
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
@@ -40290,7 +40290,7 @@
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
@@ -40392,7 +40392,7 @@
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
@@ -40409,7 +40409,7 @@
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
@@ -40494,7 +40494,7 @@
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
@@ -40511,7 +40511,7 @@
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
@@ -40528,7 +40528,7 @@
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
@@ -40545,7 +40545,7 @@
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
@@ -40630,7 +40630,7 @@
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
@@ -40647,7 +40647,7 @@
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -40766,7 +40766,7 @@
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
@@ -40868,7 +40868,7 @@
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
@@ -40885,7 +40885,7 @@
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
@@ -40902,7 +40902,7 @@
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
@@ -41004,7 +41004,7 @@
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
@@ -41106,7 +41106,7 @@
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
@@ -41123,7 +41123,7 @@
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
@@ -41225,7 +41225,7 @@
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
@@ -41242,7 +41242,7 @@
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
@@ -41259,7 +41259,7 @@
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
@@ -41344,7 +41344,7 @@
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
@@ -41463,7 +41463,7 @@
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
@@ -41480,7 +41480,7 @@
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
@@ -41582,7 +41582,7 @@
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
@@ -41599,7 +41599,7 @@
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
@@ -41701,7 +41701,7 @@
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
@@ -41718,7 +41718,7 @@
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
@@ -41820,7 +41820,7 @@
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr">
@@ -41837,7 +41837,7 @@
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr">
@@ -41888,7 +41888,7 @@
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
@@ -41939,7 +41939,7 @@
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
@@ -41956,7 +41956,7 @@
       </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2447" t="inlineStr">
@@ -42058,7 +42058,7 @@
       </c>
       <c r="B2453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2453" t="inlineStr">
@@ -42075,7 +42075,7 @@
       </c>
       <c r="B2454" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2454" t="inlineStr">
@@ -42177,7 +42177,7 @@
       </c>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr">
@@ -42194,7 +42194,7 @@
       </c>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="B2466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2466" t="inlineStr">
@@ -42296,7 +42296,7 @@
       </c>
       <c r="B2467" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2467" t="inlineStr">
@@ -42313,7 +42313,7 @@
       </c>
       <c r="B2468" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2468" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="B2474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2474" t="inlineStr">
@@ -42432,7 +42432,7 @@
       </c>
       <c r="B2475" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2475" t="inlineStr">
@@ -42534,7 +42534,7 @@
       </c>
       <c r="B2481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2481" t="inlineStr">
@@ -42551,7 +42551,7 @@
       </c>
       <c r="B2482" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2482" t="inlineStr">
@@ -42653,7 +42653,7 @@
       </c>
       <c r="B2488" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2488" t="inlineStr">
@@ -42670,7 +42670,7 @@
       </c>
       <c r="B2489" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2489" t="inlineStr">
@@ -42772,7 +42772,7 @@
       </c>
       <c r="B2495" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2495" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="B2496" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2496" t="inlineStr">
@@ -42891,7 +42891,7 @@
       </c>
       <c r="B2502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2502" t="inlineStr">
@@ -42908,7 +42908,7 @@
       </c>
       <c r="B2503" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2503" t="inlineStr">
@@ -43010,7 +43010,7 @@
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2509" t="inlineStr">
@@ -43027,7 +43027,7 @@
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2510" t="inlineStr">
@@ -43129,7 +43129,7 @@
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2516" t="inlineStr">
@@ -43146,7 +43146,7 @@
       </c>
       <c r="B2517" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2517" t="inlineStr">
@@ -43248,7 +43248,7 @@
       </c>
       <c r="B2523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2523" t="inlineStr">
@@ -43265,7 +43265,7 @@
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2524" t="inlineStr">
@@ -43367,7 +43367,7 @@
       </c>
       <c r="B2530" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2530" t="inlineStr">
@@ -43384,7 +43384,7 @@
       </c>
       <c r="B2531" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2531" t="inlineStr">
@@ -43486,7 +43486,7 @@
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2537" t="inlineStr">
@@ -43503,7 +43503,7 @@
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2538" t="inlineStr">
@@ -43605,7 +43605,7 @@
       </c>
       <c r="B2544" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2544" t="inlineStr">
@@ -43622,7 +43622,7 @@
       </c>
       <c r="B2545" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2545" t="inlineStr">
@@ -43724,7 +43724,7 @@
       </c>
       <c r="B2551" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2551" t="inlineStr">
@@ -43741,7 +43741,7 @@
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2552" t="inlineStr">
@@ -43843,7 +43843,7 @@
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2558" t="inlineStr">
@@ -43860,7 +43860,7 @@
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2559" t="inlineStr">
@@ -43962,7 +43962,7 @@
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2565" t="inlineStr">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2566" t="inlineStr">
@@ -44081,7 +44081,7 @@
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2572" t="inlineStr">
@@ -44098,7 +44098,7 @@
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2573" t="inlineStr">
@@ -44183,7 +44183,7 @@
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
@@ -44200,7 +44200,7 @@
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
@@ -44217,7 +44217,7 @@
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
@@ -44319,7 +44319,7 @@
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
@@ -44336,7 +44336,7 @@
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
@@ -44438,7 +44438,7 @@
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
@@ -44455,7 +44455,7 @@
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
@@ -44557,7 +44557,7 @@
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
@@ -44574,7 +44574,7 @@
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
@@ -44676,7 +44676,7 @@
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
@@ -44693,7 +44693,7 @@
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
@@ -44795,7 +44795,7 @@
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
@@ -44914,7 +44914,7 @@
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
@@ -44931,7 +44931,7 @@
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
@@ -45033,7 +45033,7 @@
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
@@ -45050,7 +45050,7 @@
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
@@ -45169,7 +45169,7 @@
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
@@ -45271,7 +45271,7 @@
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
@@ -45288,7 +45288,7 @@
       </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
@@ -45305,7 +45305,7 @@
       </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
@@ -45390,7 +45390,7 @@
       </c>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
@@ -45407,7 +45407,7 @@
       </c>
       <c r="B2650" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2650" t="inlineStr">
@@ -45509,7 +45509,7 @@
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
@@ -45526,7 +45526,7 @@
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
@@ -45628,7 +45628,7 @@
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
@@ -45645,7 +45645,7 @@
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
@@ -45747,7 +45747,7 @@
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
@@ -45764,7 +45764,7 @@
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
@@ -45866,7 +45866,7 @@
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
@@ -45883,7 +45883,7 @@
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
@@ -45985,7 +45985,7 @@
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
@@ -46002,7 +46002,7 @@
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
@@ -46104,7 +46104,7 @@
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
@@ -46121,7 +46121,7 @@
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
@@ -46138,7 +46138,7 @@
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
@@ -46223,7 +46223,7 @@
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
@@ -46240,7 +46240,7 @@
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
@@ -46342,7 +46342,7 @@
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
@@ -46359,7 +46359,7 @@
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
@@ -46478,7 +46478,7 @@
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
@@ -46580,7 +46580,7 @@
       </c>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
@@ -46597,7 +46597,7 @@
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
@@ -46699,7 +46699,7 @@
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
@@ -46716,7 +46716,7 @@
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
@@ -46733,7 +46733,7 @@
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
@@ -46835,7 +46835,7 @@
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
@@ -46937,7 +46937,7 @@
       </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
@@ -46954,7 +46954,7 @@
       </c>
       <c r="B2741" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2741" t="inlineStr">
@@ -47056,7 +47056,7 @@
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
@@ -47073,7 +47073,7 @@
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
@@ -47090,7 +47090,7 @@
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
@@ -47175,7 +47175,7 @@
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
@@ -47192,7 +47192,7 @@
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
@@ -47294,7 +47294,7 @@
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
@@ -47311,7 +47311,7 @@
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
@@ -47430,7 +47430,7 @@
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
@@ -47447,7 +47447,7 @@
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
@@ -47464,7 +47464,7 @@
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
@@ -47532,7 +47532,7 @@
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
@@ -47651,7 +47651,7 @@
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
@@ -47668,7 +47668,7 @@
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
@@ -47770,7 +47770,7 @@
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
@@ -47787,7 +47787,7 @@
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
@@ -47889,7 +47889,7 @@
       </c>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
@@ -47906,7 +47906,7 @@
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
@@ -48008,7 +48008,7 @@
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
@@ -48025,7 +48025,7 @@
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
@@ -48093,7 +48093,7 @@
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
@@ -48127,7 +48127,7 @@
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
@@ -48144,7 +48144,7 @@
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
@@ -48246,7 +48246,7 @@
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
@@ -48263,7 +48263,7 @@
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
@@ -48365,7 +48365,7 @@
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
@@ -48382,7 +48382,7 @@
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
@@ -48484,7 +48484,7 @@
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
@@ -48501,7 +48501,7 @@
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
@@ -48603,7 +48603,7 @@
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
@@ -48620,7 +48620,7 @@
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
@@ -48722,7 +48722,7 @@
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
@@ -48739,7 +48739,7 @@
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
@@ -48841,7 +48841,7 @@
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
@@ -48858,7 +48858,7 @@
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
@@ -48960,7 +48960,7 @@
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
@@ -48977,7 +48977,7 @@
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
@@ -49079,7 +49079,7 @@
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
@@ -49096,7 +49096,7 @@
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
@@ -49198,7 +49198,7 @@
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
@@ -49215,7 +49215,7 @@
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
@@ -49317,7 +49317,7 @@
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
@@ -49334,7 +49334,7 @@
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
@@ -49436,7 +49436,7 @@
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
@@ -49453,7 +49453,7 @@
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
@@ -49555,7 +49555,7 @@
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
@@ -49572,7 +49572,7 @@
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
@@ -49674,7 +49674,7 @@
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
@@ -49691,7 +49691,7 @@
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
@@ -49793,7 +49793,7 @@
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
@@ -49810,7 +49810,7 @@
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
@@ -49912,7 +49912,7 @@
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
@@ -49929,7 +49929,7 @@
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
@@ -50031,7 +50031,7 @@
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
@@ -50048,7 +50048,7 @@
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
@@ -50133,7 +50133,7 @@
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
@@ -50150,7 +50150,7 @@
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
@@ -50167,7 +50167,7 @@
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
@@ -50269,7 +50269,7 @@
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
@@ -50286,7 +50286,7 @@
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
@@ -50388,7 +50388,7 @@
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
@@ -50405,7 +50405,7 @@
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
@@ -50507,7 +50507,7 @@
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr">
@@ -50524,7 +50524,7 @@
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr">
@@ -50558,7 +50558,7 @@
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr">
@@ -50626,7 +50626,7 @@
       </c>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2957" t="inlineStr">
@@ -50643,7 +50643,7 @@
       </c>
       <c r="B2958" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2958" t="inlineStr">
@@ -50745,7 +50745,7 @@
       </c>
       <c r="B2964" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2964" t="inlineStr">
@@ -50762,7 +50762,7 @@
       </c>
       <c r="B2965" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2965" t="inlineStr">
@@ -50864,7 +50864,7 @@
       </c>
       <c r="B2971" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2971" t="inlineStr">
@@ -50881,7 +50881,7 @@
       </c>
       <c r="B2972" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2972" t="inlineStr">
@@ -50898,7 +50898,7 @@
       </c>
       <c r="B2973" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2973" t="inlineStr">
@@ -50983,7 +50983,7 @@
       </c>
       <c r="B2978" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2978" t="inlineStr">
@@ -51000,7 +51000,7 @@
       </c>
       <c r="B2979" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2979" t="inlineStr">
@@ -51102,7 +51102,7 @@
       </c>
       <c r="B2985" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2985" t="inlineStr">
@@ -51119,7 +51119,7 @@
       </c>
       <c r="B2986" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2986" t="inlineStr">
@@ -51221,7 +51221,7 @@
       </c>
       <c r="B2992" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2992" t="inlineStr">
@@ -51238,7 +51238,7 @@
       </c>
       <c r="B2993" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2993" t="inlineStr">
@@ -51340,7 +51340,7 @@
       </c>
       <c r="B2999" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2999" t="inlineStr">
@@ -51357,7 +51357,7 @@
       </c>
       <c r="B3000" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3000" t="inlineStr">
@@ -51459,7 +51459,7 @@
       </c>
       <c r="B3006" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3006" t="inlineStr">
@@ -51476,7 +51476,7 @@
       </c>
       <c r="B3007" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3007" t="inlineStr">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="B3013" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3013" t="inlineStr">
@@ -51595,7 +51595,7 @@
       </c>
       <c r="B3014" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3014" t="inlineStr">
@@ -51612,7 +51612,7 @@
       </c>
       <c r="B3015" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3015" t="inlineStr">
@@ -51697,7 +51697,7 @@
       </c>
       <c r="B3020" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3020" t="inlineStr">
@@ -51714,7 +51714,7 @@
       </c>
       <c r="B3021" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3021" t="inlineStr">
@@ -51816,7 +51816,7 @@
       </c>
       <c r="B3027" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3027" t="inlineStr">
@@ -51833,7 +51833,7 @@
       </c>
       <c r="B3028" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3028" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="B3029" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3029" t="inlineStr">
@@ -51935,7 +51935,7 @@
       </c>
       <c r="B3034" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3034" t="inlineStr">
@@ -51952,7 +51952,7 @@
       </c>
       <c r="B3035" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3035" t="inlineStr">
@@ -52054,7 +52054,7 @@
       </c>
       <c r="B3041" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3041" t="inlineStr">
@@ -52071,7 +52071,7 @@
       </c>
       <c r="B3042" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3042" t="inlineStr">
@@ -52173,7 +52173,7 @@
       </c>
       <c r="B3048" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3048" t="inlineStr">
@@ -52190,7 +52190,7 @@
       </c>
       <c r="B3049" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3049" t="inlineStr">
@@ -52292,7 +52292,7 @@
       </c>
       <c r="B3055" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3055" t="inlineStr">
@@ -52309,7 +52309,7 @@
       </c>
       <c r="B3056" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3056" t="inlineStr">
@@ -52360,7 +52360,7 @@
       </c>
       <c r="B3059" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3059" t="inlineStr">
@@ -52411,7 +52411,7 @@
       </c>
       <c r="B3062" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3062" t="inlineStr">
@@ -52428,7 +52428,7 @@
       </c>
       <c r="B3063" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3063" t="inlineStr">
@@ -52530,7 +52530,7 @@
       </c>
       <c r="B3069" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3069" t="inlineStr">
@@ -52547,7 +52547,7 @@
       </c>
       <c r="B3070" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3070" t="inlineStr">
@@ -52649,7 +52649,7 @@
       </c>
       <c r="B3076" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3076" t="inlineStr">
@@ -52666,7 +52666,7 @@
       </c>
       <c r="B3077" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3077" t="inlineStr">
@@ -52768,7 +52768,7 @@
       </c>
       <c r="B3083" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3083" t="inlineStr">
@@ -52785,7 +52785,7 @@
       </c>
       <c r="B3084" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3084" t="inlineStr">
@@ -52887,7 +52887,7 @@
       </c>
       <c r="B3090" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3090" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="B3091" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3091" t="inlineStr">
@@ -52921,7 +52921,7 @@
       </c>
       <c r="B3092" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3092" t="inlineStr">
@@ -52938,7 +52938,7 @@
       </c>
       <c r="B3093" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3093" t="inlineStr">
@@ -52955,7 +52955,7 @@
       </c>
       <c r="B3094" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3094" t="inlineStr">
@@ -53006,7 +53006,7 @@
       </c>
       <c r="B3097" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3097" t="inlineStr">
@@ -53023,7 +53023,7 @@
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3098" t="inlineStr">
@@ -53125,7 +53125,7 @@
       </c>
       <c r="B3104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3104" t="inlineStr">
@@ -53142,7 +53142,7 @@
       </c>
       <c r="B3105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3105" t="inlineStr">
@@ -53244,7 +53244,7 @@
       </c>
       <c r="B3111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3111" t="inlineStr">
@@ -53261,7 +53261,7 @@
       </c>
       <c r="B3112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3112" t="inlineStr">
@@ -53363,7 +53363,7 @@
       </c>
       <c r="B3118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3118" t="inlineStr">
@@ -53380,7 +53380,7 @@
       </c>
       <c r="B3119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3119" t="inlineStr">
@@ -53397,7 +53397,7 @@
       </c>
       <c r="B3120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3120" t="inlineStr">
@@ -53482,7 +53482,7 @@
       </c>
       <c r="B3125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3125" t="inlineStr">
@@ -53499,7 +53499,7 @@
       </c>
       <c r="B3126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3126" t="inlineStr">
@@ -53601,7 +53601,7 @@
       </c>
       <c r="B3132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3132" t="inlineStr">
@@ -53618,7 +53618,7 @@
       </c>
       <c r="B3133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3133" t="inlineStr">
@@ -53686,7 +53686,7 @@
       </c>
       <c r="B3137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3137" t="inlineStr">
@@ -53703,7 +53703,7 @@
       </c>
       <c r="B3138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3138" t="inlineStr">
@@ -53720,7 +53720,7 @@
       </c>
       <c r="B3139" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3139" t="inlineStr">
@@ -53737,7 +53737,7 @@
       </c>
       <c r="B3140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3140" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="B3146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3146" t="inlineStr">
@@ -53856,7 +53856,7 @@
       </c>
       <c r="B3147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3147" t="inlineStr">
@@ -53958,7 +53958,7 @@
       </c>
       <c r="B3153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3153" t="inlineStr">
@@ -53975,7 +53975,7 @@
       </c>
       <c r="B3154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3154" t="inlineStr">
@@ -54077,7 +54077,7 @@
       </c>
       <c r="B3160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3160" t="inlineStr">
@@ -54094,7 +54094,7 @@
       </c>
       <c r="B3161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3161" t="inlineStr">
@@ -54196,7 +54196,7 @@
       </c>
       <c r="B3167" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3167" t="inlineStr">
@@ -54213,7 +54213,7 @@
       </c>
       <c r="B3168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3168" t="inlineStr">
@@ -54315,7 +54315,7 @@
       </c>
       <c r="B3174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3174" t="inlineStr">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="B3175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3175" t="inlineStr">
@@ -54434,7 +54434,7 @@
       </c>
       <c r="B3181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3181" t="inlineStr">
@@ -54451,7 +54451,7 @@
       </c>
       <c r="B3182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3182" t="inlineStr">
@@ -54553,7 +54553,7 @@
       </c>
       <c r="B3188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3188" t="inlineStr">
@@ -54570,7 +54570,7 @@
       </c>
       <c r="B3189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3189" t="inlineStr">
@@ -54604,7 +54604,7 @@
       </c>
       <c r="B3191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3191" t="inlineStr">
@@ -54672,7 +54672,7 @@
       </c>
       <c r="B3195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3195" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="B3196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3196" t="inlineStr">
@@ -54706,7 +54706,7 @@
       </c>
       <c r="B3197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3197" t="inlineStr">
@@ -54723,7 +54723,7 @@
       </c>
       <c r="B3198" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3198" t="inlineStr">
@@ -54791,7 +54791,7 @@
       </c>
       <c r="B3202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3202" t="inlineStr">
@@ -54808,7 +54808,7 @@
       </c>
       <c r="B3203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3203" t="inlineStr">
@@ -54910,7 +54910,7 @@
       </c>
       <c r="B3209" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3209" t="inlineStr">
@@ -54927,7 +54927,7 @@
       </c>
       <c r="B3210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3210" t="inlineStr">
@@ -55029,7 +55029,7 @@
       </c>
       <c r="B3216" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3216" t="inlineStr">
@@ -55046,7 +55046,7 @@
       </c>
       <c r="B3217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3217" t="inlineStr">
@@ -55148,7 +55148,7 @@
       </c>
       <c r="B3223" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3223" t="inlineStr">
@@ -55165,7 +55165,7 @@
       </c>
       <c r="B3224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3224" t="inlineStr">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="B3230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3230" t="inlineStr">
@@ -55284,7 +55284,7 @@
       </c>
       <c r="B3231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3231" t="inlineStr">
@@ -55386,7 +55386,7 @@
       </c>
       <c r="B3237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3237" t="inlineStr">
@@ -55403,7 +55403,7 @@
       </c>
       <c r="B3238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3238" t="inlineStr">
@@ -55505,7 +55505,7 @@
       </c>
       <c r="B3244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3244" t="inlineStr">
@@ -55522,7 +55522,7 @@
       </c>
       <c r="B3245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3245" t="inlineStr">
@@ -55624,7 +55624,7 @@
       </c>
       <c r="B3251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3251" t="inlineStr">
@@ -55641,7 +55641,7 @@
       </c>
       <c r="B3252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3252" t="inlineStr">
@@ -55743,7 +55743,7 @@
       </c>
       <c r="B3258" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3258" t="inlineStr">
@@ -55760,7 +55760,7 @@
       </c>
       <c r="B3259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3259" t="inlineStr">
@@ -55862,7 +55862,7 @@
       </c>
       <c r="B3265" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3265" t="inlineStr">
@@ -55879,7 +55879,7 @@
       </c>
       <c r="B3266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3266" t="inlineStr">
@@ -55981,7 +55981,7 @@
       </c>
       <c r="B3272" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3272" t="inlineStr">
@@ -55998,7 +55998,7 @@
       </c>
       <c r="B3273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3273" t="inlineStr">
@@ -56100,7 +56100,7 @@
       </c>
       <c r="B3279" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3279" t="inlineStr">
@@ -56117,7 +56117,7 @@
       </c>
       <c r="B3280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3280" t="inlineStr">
@@ -56202,7 +56202,7 @@
       </c>
       <c r="B3285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3285" t="inlineStr">
@@ -56219,7 +56219,7 @@
       </c>
       <c r="B3286" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3286" t="inlineStr">
@@ -56236,7 +56236,7 @@
       </c>
       <c r="B3287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3287" t="inlineStr">
@@ -56338,7 +56338,7 @@
       </c>
       <c r="B3293" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3293" t="inlineStr">
@@ -56355,7 +56355,7 @@
       </c>
       <c r="B3294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3294" t="inlineStr">
@@ -56457,7 +56457,7 @@
       </c>
       <c r="B3300" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3300" t="inlineStr">
@@ -56474,7 +56474,7 @@
       </c>
       <c r="B3301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3301" t="inlineStr">
@@ -56576,7 +56576,7 @@
       </c>
       <c r="B3307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3307" t="inlineStr">
@@ -56593,7 +56593,7 @@
       </c>
       <c r="B3308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3308" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="B3314" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3314" t="inlineStr">
@@ -56712,7 +56712,7 @@
       </c>
       <c r="B3315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3315" t="inlineStr">
@@ -56763,7 +56763,7 @@
       </c>
       <c r="B3318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3318" t="inlineStr">
@@ -56814,7 +56814,7 @@
       </c>
       <c r="B3321" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3321" t="inlineStr">
@@ -56831,7 +56831,7 @@
       </c>
       <c r="B3322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3322" t="inlineStr">
@@ -56933,7 +56933,7 @@
       </c>
       <c r="B3328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3328" t="inlineStr">
@@ -56950,7 +56950,7 @@
       </c>
       <c r="B3329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3329" t="inlineStr">
@@ -57052,7 +57052,7 @@
       </c>
       <c r="B3335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3335" t="inlineStr">
@@ -57069,7 +57069,7 @@
       </c>
       <c r="B3336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3336" t="inlineStr">
@@ -57103,7 +57103,7 @@
       </c>
       <c r="B3338" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3338" t="inlineStr">
@@ -57171,7 +57171,7 @@
       </c>
       <c r="B3342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3342" t="inlineStr">
@@ -57188,7 +57188,7 @@
       </c>
       <c r="B3343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3343" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="B3349" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3349" t="inlineStr">
@@ -57307,7 +57307,7 @@
       </c>
       <c r="B3350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3350" t="inlineStr">
@@ -57409,7 +57409,7 @@
       </c>
       <c r="B3356" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3356" t="inlineStr">
@@ -57426,7 +57426,7 @@
       </c>
       <c r="B3357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3357" t="inlineStr">
@@ -57528,7 +57528,7 @@
       </c>
       <c r="B3363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3363" t="inlineStr">
@@ -57545,7 +57545,7 @@
       </c>
       <c r="B3364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3364" t="inlineStr">
@@ -57647,7 +57647,7 @@
       </c>
       <c r="B3370" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3370" t="inlineStr">
@@ -57664,7 +57664,7 @@
       </c>
       <c r="B3371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3371" t="inlineStr">
@@ -57766,7 +57766,7 @@
       </c>
       <c r="B3377" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3377" t="inlineStr">
@@ -57783,7 +57783,7 @@
       </c>
       <c r="B3378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3378" t="inlineStr">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="B3384" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3384" t="inlineStr">
@@ -57902,7 +57902,7 @@
       </c>
       <c r="B3385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3385" t="inlineStr">
@@ -58004,7 +58004,7 @@
       </c>
       <c r="B3391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3391" t="inlineStr">
@@ -58021,7 +58021,7 @@
       </c>
       <c r="B3392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3392" t="inlineStr">
@@ -58055,7 +58055,7 @@
       </c>
       <c r="B3394" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3394" t="inlineStr">
@@ -58123,7 +58123,7 @@
       </c>
       <c r="B3398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3398" t="inlineStr">
@@ -58140,7 +58140,7 @@
       </c>
       <c r="B3399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3399" t="inlineStr">
@@ -58242,7 +58242,7 @@
       </c>
       <c r="B3405" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3405" t="inlineStr">
@@ -58259,7 +58259,7 @@
       </c>
       <c r="B3406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3406" t="inlineStr">
